--- a/Calendarizacion/Diagrama Gantt.xlsx
+++ b/Calendarizacion/Diagrama Gantt.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juani\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,9 +235,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-AR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -292,26 +287,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -376,27 +351,27 @@
                   <c:v>43698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43699</c:v>
+                  <c:v>43712</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43700</c:v>
+                  <c:v>43705</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43701</c:v>
+                  <c:v>43705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43702</c:v>
+                  <c:v>43719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43703</c:v>
+                  <c:v>43726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43704</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-3FC2-475A-A328-3BE078E303A4}"/>
             </c:ext>
@@ -460,27 +435,27 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>217</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-3FC2-475A-A328-3BE078E303A4}"/>
             </c:ext>
@@ -496,11 +471,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2007005279"/>
-        <c:axId val="2007008191"/>
+        <c:axId val="181906432"/>
+        <c:axId val="181916416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2007005279"/>
+        <c:axId val="181906432"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -554,7 +529,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2007008191"/>
+        <c:crossAx val="181916416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -562,7 +537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2007008191"/>
+        <c:axId val="181916416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43684"/>
@@ -627,7 +602,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2007005279"/>
+        <c:crossAx val="181906432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -645,7 +620,7 @@
   </c:chart>
   <c:spPr>
     <a:blipFill dpi="0" rotWithShape="1">
-      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
         <a:alphaModFix amt="62000"/>
       </a:blip>
       <a:srcRect/>
@@ -1305,7 +1280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1340,7 +1315,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1517,7 +1492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1528,7 +1503,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,11 +1574,11 @@
         <v>6</v>
       </c>
       <c r="E4" s="3">
-        <v>43699</v>
+        <v>43712</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3">
         <v>43719</v>
@@ -1622,11 +1597,11 @@
         <v>7</v>
       </c>
       <c r="E5" s="3">
-        <v>43700</v>
+        <v>43705</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3">
         <v>43726</v>
@@ -1637,11 +1612,11 @@
         <v>8</v>
       </c>
       <c r="E6" s="3">
-        <v>43701</v>
+        <v>43705</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3">
         <v>43726</v>
@@ -1652,11 +1627,11 @@
         <v>9</v>
       </c>
       <c r="E7" s="3">
-        <v>43702</v>
+        <v>43719</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3">
         <v>43741</v>
@@ -1667,11 +1642,11 @@
         <v>10</v>
       </c>
       <c r="E8" s="3">
-        <v>43703</v>
+        <v>43726</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3">
         <v>43769</v>
@@ -1682,11 +1657,11 @@
         <v>11</v>
       </c>
       <c r="E9" s="3">
-        <v>43704</v>
+        <v>43769</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="G9" s="3">
         <v>43921</v>

--- a/Calendarizacion/Diagrama Gantt.xlsx
+++ b/Calendarizacion/Diagrama Gantt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Actividades:</t>
   </si>
@@ -48,19 +48,34 @@
     <t>Mockups</t>
   </si>
   <si>
-    <t>Diagramas : casos de uso/ Especificacion/Estado</t>
-  </si>
-  <si>
-    <t>Base de datos (ABM)</t>
-  </si>
-  <si>
-    <t>Desarrollo aplicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inicio Proyecto</t>
-  </si>
-  <si>
-    <t>Fin Proyecto</t>
+    <t xml:space="preserve">Base de datos  </t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Notificaciones</t>
+  </si>
+  <si>
+    <t>Diccionario de datos</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Casos de uso/ Especificacion/ Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funciones ABM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otras funcionalidades </t>
+  </si>
+  <si>
+    <t>Interfaz grafica</t>
   </si>
 </sst>
 </file>
@@ -193,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,6 +232,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,9 +326,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$D$2:$D$9</c:f>
+              <c:f>Hoja1!$D$2:$D$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Relevamiento</c:v>
                 </c:pt>
@@ -327,23 +345,26 @@
                   <c:v>Mockups</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Diagramas : casos de uso/ Especificacion/Estado</c:v>
+                  <c:v> Casos de uso/ Especificacion/ Estado</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Base de datos (ABM)</c:v>
+                  <c:v>Base de datos  </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Desarrollo aplicación</c:v>
+                  <c:v>Funciones ABM </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Roles</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$2:$E$9</c:f>
+              <c:f>Hoja1!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>43684</c:v>
                 </c:pt>
@@ -366,6 +387,9 @@
                   <c:v>43726</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>43733</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>43769</c:v>
                 </c:pt>
               </c:numCache>
@@ -392,9 +416,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$D$2:$D$9</c:f>
+              <c:f>Hoja1!$D$2:$D$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Relevamiento</c:v>
                 </c:pt>
@@ -411,23 +435,26 @@
                   <c:v>Mockups</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Diagramas : casos de uso/ Especificacion/Estado</c:v>
+                  <c:v> Casos de uso/ Especificacion/ Estado</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Base de datos (ABM)</c:v>
+                  <c:v>Base de datos  </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Desarrollo aplicación</c:v>
+                  <c:v>Funciones ABM </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Roles</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$2:$F$9</c:f>
+              <c:f>Hoja1!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -450,7 +477,10 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>152</c:v>
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -471,11 +501,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="181906432"/>
-        <c:axId val="181916416"/>
+        <c:axId val="193113088"/>
+        <c:axId val="193123072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181906432"/>
+        <c:axId val="193113088"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -529,7 +559,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181916416"/>
+        <c:crossAx val="193123072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -537,7 +567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181916416"/>
+        <c:axId val="193123072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43684"/>
@@ -602,7 +632,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181906432"/>
+        <c:crossAx val="193113088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -621,7 +651,7 @@
   <c:spPr>
     <a:blipFill dpi="0" rotWithShape="1">
       <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-        <a:alphaModFix amt="62000"/>
+        <a:alphaModFix amt="31000"/>
       </a:blip>
       <a:srcRect/>
       <a:stretch>
@@ -657,565 +687,20 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1492,7 +977,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1500,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1039,7 @@
         <v>43698</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F9" si="0">G3-E3</f>
+        <f t="shared" ref="F3:F8" si="0">G3-E3</f>
         <v>14</v>
       </c>
       <c r="G3" s="3">
@@ -1563,13 +1048,8 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8">
-        <f>E2</f>
-        <v>43684</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1586,13 +1066,8 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="10">
-        <f>G9</f>
-        <v>43921</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1624,7 +1099,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3">
         <v>43719</v>
@@ -1639,7 +1114,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3">
         <v>43726</v>
@@ -1654,16 +1129,121 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43733</v>
+      </c>
+      <c r="F9" s="1">
+        <f>G9-E9</f>
+        <v>43</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>43769</v>
+      </c>
+      <c r="F10" s="1">
+        <f>G10-E10</f>
+        <v>21</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43790</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3">
-        <v>43769</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="E11" s="3">
+        <v>43790</v>
+      </c>
+      <c r="F11" s="1">
+        <f>G11-E11</f>
+        <v>14</v>
+      </c>
+      <c r="G11" s="3">
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3">
+        <v>43726</v>
+      </c>
+      <c r="F12" s="1">
+        <f>G12-E12</f>
+        <v>78</v>
+      </c>
+      <c r="G12" s="3">
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>43804</v>
+      </c>
+      <c r="F13" s="1">
+        <f>G13-E13</f>
+        <v>87</v>
+      </c>
+      <c r="G13" s="3">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3">
+        <v>43790</v>
+      </c>
+      <c r="F14" s="11">
+        <f>G14-E14</f>
+        <v>131</v>
+      </c>
+      <c r="G14" s="3">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3">
+        <v>43891</v>
+      </c>
+      <c r="F15" s="1">
+        <f>G15-E15</f>
+        <v>30</v>
+      </c>
+      <c r="G15" s="3">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3">
+        <v>43891</v>
+      </c>
+      <c r="F16" s="1">
+        <f>G16-E16</f>
+        <v>30</v>
+      </c>
+      <c r="G16" s="3">
         <v>43921</v>
       </c>
     </row>

--- a/Calendarizacion/Diagrama Gantt.xlsx
+++ b/Calendarizacion/Diagrama Gantt.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juani\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,15 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Actividades:</t>
-  </si>
-  <si>
-    <t>Inicio :</t>
-  </si>
-  <si>
-    <t>Duracion ( Dias)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Actividades</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Duracion</t>
   </si>
   <si>
     <t>Fin</t>
@@ -48,7 +53,13 @@
     <t>Mockups</t>
   </si>
   <si>
-    <t xml:space="preserve">Base de datos  </t>
+    <t>Casos de uso/Especificacion/Estado</t>
+  </si>
+  <si>
+    <t>Base de datos</t>
+  </si>
+  <si>
+    <t>Funciones ABM</t>
   </si>
   <si>
     <t>Roles</t>
@@ -57,32 +68,32 @@
     <t>Login</t>
   </si>
   <si>
+    <t>Diccionario de datos</t>
+  </si>
+  <si>
+    <t>Otras funcionalidades</t>
+  </si>
+  <si>
+    <t>Interfaz grafica</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
     <t>Notificaciones</t>
   </si>
   <si>
-    <t>Diccionario de datos</t>
-  </si>
-  <si>
-    <t>Reportes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Casos de uso/ Especificacion/ Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funciones ABM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otras funcionalidades </t>
-  </si>
-  <si>
-    <t>Interfaz grafica</t>
+    <t>Inicio Proyecto</t>
+  </si>
+  <si>
+    <t>Fin Proyecto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,7 +104,6 @@
     <font>
       <b/>
       <i/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,25 +118,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,19 +128,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,31 +207,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -253,9 +249,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -275,10 +271,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -286,25 +279,62 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-AR" b="1" i="1">
+              <a:rPr lang="es-AR">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Diagrama Gantt</a:t>
+              <a:t>Diagrama</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Gantt</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -326,9 +356,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$D$2:$D$10</c:f>
+              <c:f>Hoja1!$E$2:$E$16</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Relevamiento</c:v>
                 </c:pt>
@@ -345,26 +375,44 @@
                   <c:v>Mockups</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> Casos de uso/ Especificacion/ Estado</c:v>
+                  <c:v>Casos de uso/Especificacion/Estado</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Base de datos  </c:v>
+                  <c:v>Base de datos</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Funciones ABM </c:v>
+                  <c:v>Funciones ABM</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Roles</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Diccionario de datos</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Otras funcionalidades</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Interfaz grafica</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Reportes</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Notificaciones</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$2:$E$10</c:f>
+              <c:f>Hoja1!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43684</c:v>
                 </c:pt>
@@ -391,13 +439,31 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43790</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43726</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43790</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3FC2-475A-A328-3BE078E303A4}"/>
+              <c16:uniqueId val="{00000000-6F40-43DA-B591-E59B904895E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -406,19 +472,31 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="18000"/>
+                </a:schemeClr>
+              </a:glow>
+              <a:outerShdw blurRad="254000" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+              <a:softEdge rad="12700"/>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$D$2:$D$10</c:f>
+              <c:f>Hoja1!$E$2:$E$16</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Relevamiento</c:v>
                 </c:pt>
@@ -435,26 +513,44 @@
                   <c:v>Mockups</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> Casos de uso/ Especificacion/ Estado</c:v>
+                  <c:v>Casos de uso/Especificacion/Estado</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Base de datos  </c:v>
+                  <c:v>Base de datos</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Funciones ABM </c:v>
+                  <c:v>Funciones ABM</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Roles</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Diccionario de datos</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Otras funcionalidades</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Interfaz grafica</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Reportes</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Notificaciones</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$2:$F$10</c:f>
+              <c:f>Hoja1!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -481,13 +577,31 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3FC2-475A-A328-3BE078E303A4}"/>
+              <c16:uniqueId val="{00000001-6F40-43DA-B591-E59B904895E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -499,13 +613,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="159"/>
         <c:overlap val="100"/>
-        <c:axId val="193113088"/>
-        <c:axId val="193123072"/>
+        <c:axId val="15741423"/>
+        <c:axId val="15742255"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193113088"/>
+        <c:axId val="15741423"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -516,27 +630,55 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="53000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="10000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
           <a:effectLst>
-            <a:glow rad="127000">
-              <a:schemeClr val="tx1">
-                <a:alpha val="21000"/>
+            <a:glow rad="88900">
+              <a:schemeClr val="accent1">
+                <a:alpha val="19000"/>
               </a:schemeClr>
             </a:glow>
-            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-                <a:alpha val="65000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="127000" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="97000"/>
+              </a:srgbClr>
             </a:outerShdw>
+            <a:softEdge rad="0"/>
           </a:effectLst>
         </c:spPr>
         <c:txPr>
@@ -544,14 +686,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -559,7 +701,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193123072"/>
+        <c:crossAx val="15742255"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -567,7 +709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193123072"/>
+        <c:axId val="15742255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43684"/>
@@ -588,30 +730,19 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -620,9 +751,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -632,16 +766,31 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193113088"/>
+        <c:crossAx val="15741423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="30"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:glow rad="127000">
+            <a:schemeClr val="accent1">
+              <a:alpha val="36000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -650,8 +799,8 @@
   </c:chart>
   <c:spPr>
     <a:blipFill dpi="0" rotWithShape="1">
-      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-        <a:alphaModFix amt="31000"/>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:alphaModFix amt="48000"/>
       </a:blip>
       <a:srcRect/>
       <a:stretch>
@@ -660,9 +809,8 @@
     </a:blipFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="bg2">
+          <a:lumMod val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -687,24 +835,569 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -765,7 +1458,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -800,7 +1493,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -977,7 +1670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -985,265 +1678,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="2">
         <v>43684</v>
       </c>
-      <c r="F2" s="1">
-        <f>G2-E2</f>
+      <c r="G2" s="3">
         <v>14</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="2">
+        <f>G2+F2</f>
         <v>43698</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="5" t="s">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="2">
         <v>43698</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F8" si="0">G3-E3</f>
+      <c r="G3" s="3">
         <v>14</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H16" si="0">G3+F3</f>
         <v>43712</v>
       </c>
-      <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="D4" s="5" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43684</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="2">
         <v>43712</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="3">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>43921</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3">
+      <c r="F5" s="2">
+        <v>43705</v>
+      </c>
+      <c r="G5" s="3">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43705</v>
+      </c>
+      <c r="G6" s="3">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
         <v>43719</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="G7" s="3">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>43741</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3">
-        <v>43705</v>
-      </c>
-      <c r="F5" s="1">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43726</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43733</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43769</v>
+      </c>
+      <c r="G10" s="3">
         <v>21</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>43790</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43790</v>
+      </c>
+      <c r="G11" s="3">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2">
         <v>43726</v>
       </c>
+      <c r="G12" s="3">
+        <v>78</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>43804</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3">
-        <v>43705</v>
-      </c>
-      <c r="F6" s="1">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43804</v>
+      </c>
+      <c r="G13" s="3">
+        <v>87</v>
+      </c>
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="G6" s="3">
-        <v>43726</v>
+        <v>43891</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3">
-        <v>43719</v>
-      </c>
-      <c r="F7" s="1">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43790</v>
+      </c>
+      <c r="G14" s="3">
+        <v>131</v>
+      </c>
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="G7" s="3">
-        <v>43741</v>
+        <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43726</v>
-      </c>
-      <c r="F8" s="1">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2">
+        <v>43891</v>
+      </c>
+      <c r="G15" s="3">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="G8" s="3">
-        <v>43769</v>
+        <v>43921</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3">
-        <v>43733</v>
-      </c>
-      <c r="F9" s="1">
-        <f>G9-E9</f>
-        <v>43</v>
-      </c>
-      <c r="G9" s="3">
-        <v>43776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3">
-        <v>43769</v>
-      </c>
-      <c r="F10" s="1">
-        <f>G10-E10</f>
-        <v>21</v>
-      </c>
-      <c r="G10" s="3">
-        <v>43790</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3">
-        <v>43790</v>
-      </c>
-      <c r="F11" s="1">
-        <f>G11-E11</f>
-        <v>14</v>
-      </c>
-      <c r="G11" s="3">
-        <v>43804</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3">
-        <v>43726</v>
-      </c>
-      <c r="F12" s="1">
-        <f>G12-E12</f>
-        <v>78</v>
-      </c>
-      <c r="G12" s="3">
-        <v>43804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3">
-        <v>43804</v>
-      </c>
-      <c r="F13" s="1">
-        <f>G13-E13</f>
-        <v>87</v>
-      </c>
-      <c r="G13" s="3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2">
         <v>43891</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3">
-        <v>43790</v>
-      </c>
-      <c r="F14" s="11">
-        <f>G14-E14</f>
-        <v>131</v>
-      </c>
-      <c r="G14" s="3">
-        <v>43921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3">
-        <v>43891</v>
-      </c>
-      <c r="F15" s="1">
-        <f>G15-E15</f>
+      <c r="G16" s="3">
         <v>30</v>
       </c>
-      <c r="G15" s="3">
-        <v>43921</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3">
-        <v>43891</v>
-      </c>
-      <c r="F16" s="1">
-        <f>G16-E16</f>
-        <v>30</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
         <v>43921</v>
       </c>
     </row>

--- a/Calendarizacion/Diagrama Gantt.xlsx
+++ b/Calendarizacion/Diagrama Gantt.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juani\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
@@ -92,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,9 +244,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-AR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -307,8 +302,8 @@
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
@@ -318,23 +313,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -461,7 +439,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6F40-43DA-B591-E59B904895E9}"/>
             </c:ext>
@@ -599,7 +577,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6F40-43DA-B591-E59B904895E9}"/>
             </c:ext>
@@ -615,11 +593,11 @@
         </c:dLbls>
         <c:gapWidth val="159"/>
         <c:overlap val="100"/>
-        <c:axId val="15741423"/>
-        <c:axId val="15742255"/>
+        <c:axId val="191028224"/>
+        <c:axId val="191034112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15741423"/>
+        <c:axId val="191028224"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -638,22 +616,22 @@
                   <a:lumOff val="95000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="53000">
+              <a:gs pos="0">
                 <a:schemeClr val="accent1">
                   <a:lumMod val="45000"/>
                   <a:lumOff val="55000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="83000">
+              <a:gs pos="0">
                 <a:schemeClr val="accent1">
                   <a:lumMod val="45000"/>
                   <a:lumOff val="55000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="100000">
+              <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:lumMod val="30000"/>
-                  <a:lumOff val="70000"/>
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
@@ -701,15 +679,16 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15742255"/>
+        <c:crossAx val="191034112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15742255"/>
+        <c:axId val="191034112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43684"/>
@@ -737,8 +716,8 @@
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent4">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:ln w="28575">
@@ -766,7 +745,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15741423"/>
+        <c:crossAx val="191028224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30"/>
@@ -799,8 +778,8 @@
   </c:chart>
   <c:spPr>
     <a:blipFill dpi="0" rotWithShape="1">
-      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-        <a:alphaModFix amt="48000"/>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:alphaModFix amt="21000"/>
       </a:blip>
       <a:srcRect/>
       <a:stretch>
@@ -833,551 +812,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1458,7 +892,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1493,7 +927,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1670,7 +1104,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1680,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
